--- a/Code/Results/Cases/Case_4_111/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_111/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9920170700230635</v>
+        <v>1.037444437602331</v>
       </c>
       <c r="D2">
-        <v>1.01313651487073</v>
+        <v>1.042138589983732</v>
       </c>
       <c r="E2">
-        <v>1.000247564815958</v>
+        <v>1.041094892765427</v>
       </c>
       <c r="F2">
-        <v>1.012837618105066</v>
+        <v>1.050016610925958</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039873435258765</v>
+        <v>1.034075243823482</v>
       </c>
       <c r="J2">
-        <v>1.014439199328439</v>
+        <v>1.042547274773737</v>
       </c>
       <c r="K2">
-        <v>1.024415821257842</v>
+        <v>1.044916123799758</v>
       </c>
       <c r="L2">
-        <v>1.011703451744553</v>
+        <v>1.043875379655358</v>
       </c>
       <c r="M2">
-        <v>1.024120955414939</v>
+        <v>1.052772059767402</v>
       </c>
       <c r="N2">
-        <v>1.007939206296868</v>
+        <v>1.017985379744404</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9986996316042495</v>
+        <v>1.038802706682118</v>
       </c>
       <c r="D3">
-        <v>1.018109277965913</v>
+        <v>1.043162929669785</v>
       </c>
       <c r="E3">
-        <v>1.006402839484927</v>
+        <v>1.04240240476731</v>
       </c>
       <c r="F3">
-        <v>1.018722172548985</v>
+        <v>1.051262755441174</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041516741575669</v>
+        <v>1.034328747927642</v>
       </c>
       <c r="J3">
-        <v>1.019225808855155</v>
+        <v>1.043547872266179</v>
       </c>
       <c r="K3">
-        <v>1.028515574209327</v>
+        <v>1.045750674159067</v>
       </c>
       <c r="L3">
-        <v>1.016954445098884</v>
+        <v>1.044992144075422</v>
       </c>
       <c r="M3">
-        <v>1.029120975464196</v>
+        <v>1.053829447732489</v>
       </c>
       <c r="N3">
-        <v>1.009617849834071</v>
+        <v>1.01832817739493</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002905708934104</v>
+        <v>1.039680865649978</v>
       </c>
       <c r="D4">
-        <v>1.0212419774911</v>
+        <v>1.043824911905987</v>
       </c>
       <c r="E4">
-        <v>1.010283212882426</v>
+        <v>1.043248093144826</v>
       </c>
       <c r="F4">
-        <v>1.022432545775505</v>
+        <v>1.052068655914</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042538857730206</v>
+        <v>1.034491047235553</v>
       </c>
       <c r="J4">
-        <v>1.02223537730827</v>
+        <v>1.044194160872374</v>
       </c>
       <c r="K4">
-        <v>1.031090616067766</v>
+        <v>1.046289247941697</v>
       </c>
       <c r="L4">
-        <v>1.020259092861916</v>
+        <v>1.045713865296643</v>
       </c>
       <c r="M4">
-        <v>1.032267563464419</v>
+        <v>1.054512652465019</v>
       </c>
       <c r="N4">
-        <v>1.010672078173036</v>
+        <v>1.018549321356315</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004647138254648</v>
+        <v>1.040049872859116</v>
       </c>
       <c r="D5">
-        <v>1.022539558839663</v>
+        <v>1.044103011894805</v>
       </c>
       <c r="E5">
-        <v>1.011891208330786</v>
+        <v>1.043603538091141</v>
       </c>
       <c r="F5">
-        <v>1.023970218772183</v>
+        <v>1.052407354581509</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042959051071032</v>
+        <v>1.034558863316713</v>
       </c>
       <c r="J5">
-        <v>1.023480594598708</v>
+        <v>1.044465584633633</v>
       </c>
       <c r="K5">
-        <v>1.03215537723572</v>
+        <v>1.046515322788206</v>
       </c>
       <c r="L5">
-        <v>1.02162714912542</v>
+        <v>1.046017064601658</v>
       </c>
       <c r="M5">
-        <v>1.033570132298836</v>
+        <v>1.054799636038349</v>
       </c>
       <c r="N5">
-        <v>1.011107960203828</v>
+        <v>1.018642130974632</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004937999895283</v>
+        <v>1.040111820904117</v>
       </c>
       <c r="D6">
-        <v>1.022756316748297</v>
+        <v>1.044149694601701</v>
       </c>
       <c r="E6">
-        <v>1.012159864687284</v>
+        <v>1.04366321413052</v>
       </c>
       <c r="F6">
-        <v>1.024227132298059</v>
+        <v>1.052464217691636</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043029056079906</v>
+        <v>1.034570225648034</v>
       </c>
       <c r="J6">
-        <v>1.023688526300641</v>
+        <v>1.044511141778746</v>
       </c>
       <c r="K6">
-        <v>1.032333135388731</v>
+        <v>1.046553261784508</v>
       </c>
       <c r="L6">
-        <v>1.021855637221707</v>
+        <v>1.046067960741949</v>
       </c>
       <c r="M6">
-        <v>1.03378767898303</v>
+        <v>1.0548478081013</v>
       </c>
       <c r="N6">
-        <v>1.0111807270715</v>
+        <v>1.018657704801411</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0029290815</v>
+        <v>1.039685797008096</v>
       </c>
       <c r="D7">
-        <v>1.021259390885822</v>
+        <v>1.043828628664196</v>
       </c>
       <c r="E7">
-        <v>1.010304789048151</v>
+        <v>1.043252842937119</v>
       </c>
       <c r="F7">
-        <v>1.022453177904827</v>
+        <v>1.052073182018749</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04254450925983</v>
+        <v>1.034491955025295</v>
       </c>
       <c r="J7">
-        <v>1.022252093317333</v>
+        <v>1.044197788730726</v>
       </c>
       <c r="K7">
-        <v>1.031104912290764</v>
+        <v>1.046292270104244</v>
       </c>
       <c r="L7">
-        <v>1.020277454910654</v>
+        <v>1.04571791749084</v>
       </c>
       <c r="M7">
-        <v>1.032285046788761</v>
+        <v>1.054516488076298</v>
       </c>
       <c r="N7">
-        <v>1.010677930767339</v>
+        <v>1.018550562107856</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.994300805621241</v>
+        <v>1.037903625211054</v>
       </c>
       <c r="D8">
-        <v>1.014835277527883</v>
+        <v>1.042484944473806</v>
       </c>
       <c r="E8">
-        <v>1.002349759334208</v>
+        <v>1.041536849122719</v>
       </c>
       <c r="F8">
-        <v>1.01484719161962</v>
+        <v>1.050437843904845</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040437558501884</v>
+        <v>1.034161276386954</v>
       </c>
       <c r="J8">
-        <v>1.016075631045627</v>
+        <v>1.042885674329784</v>
       </c>
       <c r="K8">
-        <v>1.025817976368834</v>
+        <v>1.045198462704642</v>
       </c>
       <c r="L8">
-        <v>1.013497995436551</v>
+        <v>1.044252983691998</v>
       </c>
       <c r="M8">
-        <v>1.025829734936394</v>
+        <v>1.053129616862515</v>
       </c>
       <c r="N8">
-        <v>1.008513341704072</v>
+        <v>1.018101368867993</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9781220656402224</v>
+        <v>1.034757407010874</v>
       </c>
       <c r="D9">
-        <v>1.002817632748436</v>
+        <v>1.04011070858018</v>
       </c>
       <c r="E9">
-        <v>0.9874867030424194</v>
+        <v>1.038510136208234</v>
       </c>
       <c r="F9">
-        <v>1.000643455956033</v>
+        <v>1.047552674579913</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036391390343834</v>
+        <v>1.03356525719108</v>
       </c>
       <c r="J9">
-        <v>1.00447176979965</v>
+        <v>1.040564508828207</v>
       </c>
       <c r="K9">
-        <v>1.015865160641809</v>
+        <v>1.043259934751922</v>
       </c>
       <c r="L9">
-        <v>1.000786115640852</v>
+        <v>1.041664547282897</v>
       </c>
       <c r="M9">
-        <v>1.013726102155429</v>
+        <v>1.05067802094264</v>
       </c>
       <c r="N9">
-        <v>1.004437654505469</v>
+        <v>1.017304669807149</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9665706198943836</v>
+        <v>1.032655747466325</v>
       </c>
       <c r="D10">
-        <v>0.9942649667896453</v>
+        <v>1.038523369996079</v>
       </c>
       <c r="E10">
-        <v>0.9769162616135431</v>
+        <v>1.036490142534406</v>
       </c>
       <c r="F10">
-        <v>0.9905496266554322</v>
+        <v>1.045626684206563</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033442137902447</v>
+        <v>1.033158904863437</v>
       </c>
       <c r="J10">
-        <v>0.9961763493690363</v>
+        <v>1.039010794082197</v>
       </c>
       <c r="K10">
-        <v>1.008738546877956</v>
+        <v>1.041959977027243</v>
       </c>
       <c r="L10">
-        <v>0.9917151946077656</v>
+        <v>1.039933990800872</v>
       </c>
       <c r="M10">
-        <v>1.005091632956621</v>
+        <v>1.049038236727926</v>
       </c>
       <c r="N10">
-        <v>1.00151906503701</v>
+        <v>1.016770009925879</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.96135868754094</v>
+        <v>1.031744651494427</v>
       </c>
       <c r="D11">
-        <v>0.9904148479901843</v>
+        <v>1.037834930011938</v>
       </c>
       <c r="E11">
-        <v>0.9721581973250718</v>
+        <v>1.035614893545387</v>
       </c>
       <c r="F11">
-        <v>0.9860086502190314</v>
+        <v>1.044792061599228</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032098268991255</v>
+        <v>1.032980802184243</v>
       </c>
       <c r="J11">
-        <v>0.992432281183953</v>
+        <v>1.038336489250501</v>
       </c>
       <c r="K11">
-        <v>1.005519818694819</v>
+        <v>1.041395244478994</v>
       </c>
       <c r="L11">
-        <v>0.9876249884965574</v>
+        <v>1.039183425341821</v>
       </c>
       <c r="M11">
-        <v>1.001199336000568</v>
+        <v>1.048326874637706</v>
       </c>
       <c r="N11">
-        <v>1.000200898586097</v>
+        <v>1.016537646969981</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9593884176762084</v>
+        <v>1.031406064628091</v>
       </c>
       <c r="D12">
-        <v>0.9889609114824072</v>
+        <v>1.037579042666136</v>
       </c>
       <c r="E12">
-        <v>0.9703613227879111</v>
+        <v>1.03528969570684</v>
       </c>
       <c r="F12">
-        <v>0.9842942104471074</v>
+        <v>1.044481943141287</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031588370824065</v>
+        <v>1.032914322936971</v>
       </c>
       <c r="J12">
-        <v>0.991016840861602</v>
+        <v>1.038085787943001</v>
       </c>
       <c r="K12">
-        <v>1.004302703615537</v>
+        <v>1.041185197989271</v>
       </c>
       <c r="L12">
-        <v>0.9860792682251583</v>
+        <v>1.038904444143638</v>
       </c>
       <c r="M12">
-        <v>0.9997286238667341</v>
+        <v>1.048062440544322</v>
       </c>
       <c r="N12">
-        <v>0.9997024607433579</v>
+        <v>1.016451207924687</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9598126485601624</v>
+        <v>1.03147870022665</v>
       </c>
       <c r="D13">
-        <v>0.9892738950528397</v>
+        <v>1.037633939115966</v>
       </c>
       <c r="E13">
-        <v>0.97074813451325</v>
+        <v>1.03535945595533</v>
       </c>
       <c r="F13">
-        <v>0.9846632549264761</v>
+        <v>1.044548469302542</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031698242938015</v>
+        <v>1.03292859763905</v>
       </c>
       <c r="J13">
-        <v>0.9913216090649403</v>
+        <v>1.038139574894192</v>
       </c>
       <c r="K13">
-        <v>1.004564780781878</v>
+        <v>1.041230266376988</v>
       </c>
       <c r="L13">
-        <v>0.9864120619419517</v>
+        <v>1.038964295119251</v>
       </c>
       <c r="M13">
-        <v>1.000045257677539</v>
+        <v>1.048119171777062</v>
       </c>
       <c r="N13">
-        <v>0.9998097871986912</v>
+        <v>1.016469755253646</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.961196541813507</v>
+        <v>1.031716667201365</v>
       </c>
       <c r="D14">
-        <v>0.9902951623205855</v>
+        <v>1.037813781771365</v>
       </c>
       <c r="E14">
-        <v>0.9720102836746867</v>
+        <v>1.035588014481102</v>
       </c>
       <c r="F14">
-        <v>0.9858675127753149</v>
+        <v>1.044766429223512</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032056343691955</v>
+        <v>1.032975313604183</v>
       </c>
       <c r="J14">
-        <v>0.9923157964867724</v>
+        <v>1.03831577100674</v>
       </c>
       <c r="K14">
-        <v>1.005419660671945</v>
+        <v>1.041377887692764</v>
       </c>
       <c r="L14">
-        <v>0.9874977706412809</v>
+        <v>1.039160368522654</v>
       </c>
       <c r="M14">
-        <v>1.001078286856154</v>
+        <v>1.048305020585231</v>
       </c>
       <c r="N14">
-        <v>1.000159881284201</v>
+        <v>1.016530504531703</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9620445673350695</v>
+        <v>1.031863264446157</v>
       </c>
       <c r="D15">
-        <v>0.990921184191459</v>
+        <v>1.037924566138207</v>
       </c>
       <c r="E15">
-        <v>0.9727839499193321</v>
+        <v>1.035728824686759</v>
       </c>
       <c r="F15">
-        <v>0.9866057547025366</v>
+        <v>1.044900707830583</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032275538309281</v>
+        <v>1.033004053889701</v>
       </c>
       <c r="J15">
-        <v>0.9929250118312097</v>
+        <v>1.03842430006667</v>
       </c>
       <c r="K15">
-        <v>1.005943476426251</v>
+        <v>1.041468804910723</v>
       </c>
       <c r="L15">
-        <v>0.9881631438687689</v>
+        <v>1.039281150816222</v>
       </c>
       <c r="M15">
-        <v>1.001711405696791</v>
+        <v>1.048419501225647</v>
       </c>
       <c r="N15">
-        <v>1.000374397731127</v>
+        <v>1.016567917025993</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9669118639162112</v>
+        <v>1.032716191031623</v>
       </c>
       <c r="D16">
-        <v>0.9945172468868519</v>
+        <v>1.038569035805681</v>
       </c>
       <c r="E16">
-        <v>0.9772280328785882</v>
+        <v>1.036548217357902</v>
       </c>
       <c r="F16">
-        <v>0.9908472318036438</v>
+        <v>1.045682061205907</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033529861368681</v>
+        <v>1.033170679575745</v>
       </c>
       <c r="J16">
-        <v>0.9964214710823917</v>
+        <v>1.039055512795011</v>
       </c>
       <c r="K16">
-        <v>1.008949233656585</v>
+        <v>1.041997417405234</v>
       </c>
       <c r="L16">
-        <v>0.9919830576262861</v>
+        <v>1.039983777247482</v>
       </c>
       <c r="M16">
-        <v>1.005346562198109</v>
+        <v>1.049085419277279</v>
       </c>
       <c r="N16">
-        <v>1.00160534836565</v>
+        <v>1.016785413048615</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9699068939760406</v>
+        <v>1.033250920753904</v>
       </c>
       <c r="D17">
-        <v>0.9967324741948167</v>
+        <v>1.038972994779201</v>
       </c>
       <c r="E17">
-        <v>0.9799656717242644</v>
+        <v>1.037062042712313</v>
       </c>
       <c r="F17">
-        <v>0.9934607752957855</v>
+        <v>1.046172005145864</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034298314163187</v>
+        <v>1.033274623259062</v>
       </c>
       <c r="J17">
-        <v>0.9985727286989751</v>
+        <v>1.039451042009282</v>
       </c>
       <c r="K17">
-        <v>1.01079803856436</v>
+        <v>1.042328506789307</v>
       </c>
       <c r="L17">
-        <v>0.9943343369173475</v>
+        <v>1.040424185964153</v>
       </c>
       <c r="M17">
-        <v>1.007584440586212</v>
+        <v>1.049502774939665</v>
       </c>
       <c r="N17">
-        <v>1.002362498230095</v>
+        <v>1.016921613731514</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9716337776626427</v>
+        <v>1.033562717311781</v>
       </c>
       <c r="D18">
-        <v>0.9980105493203006</v>
+        <v>1.039208510138466</v>
       </c>
       <c r="E18">
-        <v>0.9815451974296685</v>
+        <v>1.03736169284721</v>
       </c>
       <c r="F18">
-        <v>0.9949689377703225</v>
+        <v>1.046457718121249</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034740142474931</v>
+        <v>1.033335044533144</v>
       </c>
       <c r="J18">
-        <v>0.9998129833437112</v>
+        <v>1.039681599548506</v>
       </c>
       <c r="K18">
-        <v>1.011863711864411</v>
+        <v>1.042521448070027</v>
       </c>
       <c r="L18">
-        <v>0.9956902744408852</v>
+        <v>1.04068095118093</v>
       </c>
       <c r="M18">
-        <v>1.008875082697982</v>
+        <v>1.04974608386137</v>
       </c>
       <c r="N18">
-        <v>1.002798929197338</v>
+        <v>1.01700097518667</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9722192754669332</v>
+        <v>1.033669014703214</v>
       </c>
       <c r="D19">
-        <v>0.9984440111636231</v>
+        <v>1.03928879671885</v>
       </c>
       <c r="E19">
-        <v>0.9820809080754119</v>
+        <v>1.037463856520826</v>
       </c>
       <c r="F19">
-        <v>0.9954804829655782</v>
+        <v>1.046555128287441</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034889729021289</v>
+        <v>1.033355611493058</v>
       </c>
       <c r="J19">
-        <v>1.000233465828278</v>
+        <v>1.039760188725639</v>
       </c>
       <c r="K19">
-        <v>1.012224969195615</v>
+        <v>1.042587206031195</v>
       </c>
       <c r="L19">
-        <v>0.9961500389224522</v>
+        <v>1.04076848163498</v>
       </c>
       <c r="M19">
-        <v>1.0093127228068</v>
+        <v>1.049829024382767</v>
       </c>
       <c r="N19">
-        <v>1.002946876823138</v>
+        <v>1.017028021500799</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9695876501302221</v>
+        <v>1.033193559931879</v>
       </c>
       <c r="D20">
-        <v>0.9964962646447721</v>
+        <v>1.038929664902748</v>
       </c>
       <c r="E20">
-        <v>0.9796737536082618</v>
+        <v>1.037006919889246</v>
       </c>
       <c r="F20">
-        <v>0.9931820646963277</v>
+        <v>1.046119445347443</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034216532854089</v>
+        <v>1.03326349253746</v>
       </c>
       <c r="J20">
-        <v>0.9983434356728124</v>
+        <v>1.039408620799865</v>
       </c>
       <c r="K20">
-        <v>1.010601004076629</v>
+        <v>1.042293002419144</v>
       </c>
       <c r="L20">
-        <v>0.9940836865502477</v>
+        <v>1.040376946485186</v>
       </c>
       <c r="M20">
-        <v>1.00734586814416</v>
+        <v>1.049458009849236</v>
       </c>
       <c r="N20">
-        <v>1.002281805644656</v>
+        <v>1.016907009187752</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.960789991158468</v>
+        <v>1.031646596464455</v>
       </c>
       <c r="D21">
-        <v>0.9899950977529431</v>
+        <v>1.03776082731139</v>
       </c>
       <c r="E21">
-        <v>0.9716394470687125</v>
+        <v>1.035520712251078</v>
       </c>
       <c r="F21">
-        <v>0.9855136724191849</v>
+        <v>1.044702248319081</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03195119392412</v>
+        <v>1.032961565868808</v>
       </c>
       <c r="J21">
-        <v>0.9920237318099315</v>
+        <v>1.03826389214541</v>
       </c>
       <c r="K21">
-        <v>1.005168527922091</v>
+        <v>1.041334424638426</v>
       </c>
       <c r="L21">
-        <v>0.9871788037409314</v>
+        <v>1.039102635008012</v>
       </c>
       <c r="M21">
-        <v>1.00077479011986</v>
+        <v>1.048250298362834</v>
       </c>
       <c r="N21">
-        <v>1.000057036066747</v>
+        <v>1.016512618956367</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9550583339618346</v>
+        <v>1.030673000283526</v>
       </c>
       <c r="D22">
-        <v>0.9857686394877397</v>
+        <v>1.037024947162503</v>
       </c>
       <c r="E22">
-        <v>0.9664158220292468</v>
+        <v>1.034585743501989</v>
       </c>
       <c r="F22">
-        <v>0.9805306317535978</v>
+        <v>1.043810605551743</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030464431738044</v>
+        <v>1.032769857600627</v>
       </c>
       <c r="J22">
-        <v>0.9879061266791314</v>
+        <v>1.037542797395142</v>
       </c>
       <c r="K22">
-        <v>1.001627394247995</v>
+        <v>1.04073010917172</v>
       </c>
       <c r="L22">
-        <v>0.9826832955462546</v>
+        <v>1.038300336434515</v>
       </c>
       <c r="M22">
-        <v>0.9964979052003441</v>
+        <v>1.047489788627486</v>
       </c>
       <c r="N22">
-        <v>0.9986068777933865</v>
+        <v>1.016263902675927</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9581167842542878</v>
+        <v>1.031189214762094</v>
       </c>
       <c r="D23">
-        <v>0.9880229829395374</v>
+        <v>1.037415145590101</v>
       </c>
       <c r="E23">
-        <v>0.9692021308251831</v>
+        <v>1.035081439967433</v>
       </c>
       <c r="F23">
-        <v>0.9831883350471924</v>
+        <v>1.044283339933689</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031258762752657</v>
+        <v>1.032871663861415</v>
       </c>
       <c r="J23">
-        <v>0.9901032968957183</v>
+        <v>1.037925193364106</v>
       </c>
       <c r="K23">
-        <v>1.003517089443821</v>
+        <v>1.04105062272233</v>
       </c>
       <c r="L23">
-        <v>0.985081801822893</v>
+        <v>1.038725754598577</v>
       </c>
       <c r="M23">
-        <v>0.9987796286987545</v>
+        <v>1.047893061649802</v>
       </c>
       <c r="N23">
-        <v>0.9993807357472617</v>
+        <v>1.016395823117688</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9697319644896897</v>
+        <v>1.033219479133876</v>
       </c>
       <c r="D24">
-        <v>0.9966030407964102</v>
+        <v>1.038949244139548</v>
       </c>
       <c r="E24">
-        <v>0.9798057121069809</v>
+        <v>1.037031827691528</v>
       </c>
       <c r="F24">
-        <v>0.9933080521503971</v>
+        <v>1.046143195052551</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034253506025827</v>
+        <v>1.03326852267198</v>
       </c>
       <c r="J24">
-        <v>0.9984470881079089</v>
+        <v>1.039427789575387</v>
       </c>
       <c r="K24">
-        <v>1.010690074620773</v>
+        <v>1.042309045864245</v>
       </c>
       <c r="L24">
-        <v>0.994196992485141</v>
+        <v>1.040398292335919</v>
       </c>
       <c r="M24">
-        <v>1.007453713971214</v>
+        <v>1.049478237660744</v>
       </c>
       <c r="N24">
-        <v>1.002318283178236</v>
+        <v>1.016913608606065</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.982430820092397</v>
+        <v>1.035571496212434</v>
       </c>
       <c r="D25">
-        <v>1.006014111113757</v>
+        <v>1.04072529019292</v>
       </c>
       <c r="E25">
-        <v>0.9914383711191455</v>
+        <v>1.039292982478276</v>
       </c>
       <c r="F25">
-        <v>1.004418727717963</v>
+        <v>1.048298994098601</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037479610971354</v>
+        <v>1.033720926168759</v>
       </c>
       <c r="J25">
-        <v>1.007564276924114</v>
+        <v>1.041165677454444</v>
       </c>
       <c r="K25">
-        <v>1.018519777674713</v>
+        <v>1.0437624207158</v>
       </c>
       <c r="L25">
-        <v>1.004171065413608</v>
+        <v>1.042334574622193</v>
       </c>
       <c r="M25">
-        <v>1.016948833723976</v>
+        <v>1.051312753829433</v>
       </c>
       <c r="N25">
-        <v>1.005524783976654</v>
+        <v>1.017511253186763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_111/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_111/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037444437602331</v>
+        <v>0.9920170700230628</v>
       </c>
       <c r="D2">
-        <v>1.042138589983732</v>
+        <v>1.01313651487073</v>
       </c>
       <c r="E2">
-        <v>1.041094892765427</v>
+        <v>1.000247564815957</v>
       </c>
       <c r="F2">
-        <v>1.050016610925958</v>
+        <v>1.012837618105066</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034075243823482</v>
+        <v>1.039873435258764</v>
       </c>
       <c r="J2">
-        <v>1.042547274773737</v>
+        <v>1.014439199328438</v>
       </c>
       <c r="K2">
-        <v>1.044916123799758</v>
+        <v>1.024415821257841</v>
       </c>
       <c r="L2">
-        <v>1.043875379655358</v>
+        <v>1.011703451744552</v>
       </c>
       <c r="M2">
-        <v>1.052772059767402</v>
+        <v>1.024120955414938</v>
       </c>
       <c r="N2">
-        <v>1.017985379744404</v>
+        <v>1.007939206296868</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038802706682118</v>
+        <v>0.9986996316042478</v>
       </c>
       <c r="D3">
-        <v>1.043162929669785</v>
+        <v>1.018109277965911</v>
       </c>
       <c r="E3">
-        <v>1.04240240476731</v>
+        <v>1.006402839484926</v>
       </c>
       <c r="F3">
-        <v>1.051262755441174</v>
+        <v>1.018722172548983</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034328747927642</v>
+        <v>1.041516741575669</v>
       </c>
       <c r="J3">
-        <v>1.043547872266179</v>
+        <v>1.019225808855154</v>
       </c>
       <c r="K3">
-        <v>1.045750674159067</v>
+        <v>1.028515574209325</v>
       </c>
       <c r="L3">
-        <v>1.044992144075422</v>
+        <v>1.016954445098882</v>
       </c>
       <c r="M3">
-        <v>1.053829447732489</v>
+        <v>1.029120975464194</v>
       </c>
       <c r="N3">
-        <v>1.01832817739493</v>
+        <v>1.009617849834071</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039680865649978</v>
+        <v>1.002905708934104</v>
       </c>
       <c r="D4">
-        <v>1.043824911905987</v>
+        <v>1.0212419774911</v>
       </c>
       <c r="E4">
-        <v>1.043248093144826</v>
+        <v>1.010283212882425</v>
       </c>
       <c r="F4">
-        <v>1.052068655914</v>
+        <v>1.022432545775505</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034491047235553</v>
+        <v>1.042538857730206</v>
       </c>
       <c r="J4">
-        <v>1.044194160872374</v>
+        <v>1.02223537730827</v>
       </c>
       <c r="K4">
-        <v>1.046289247941697</v>
+        <v>1.031090616067765</v>
       </c>
       <c r="L4">
-        <v>1.045713865296643</v>
+        <v>1.020259092861916</v>
       </c>
       <c r="M4">
-        <v>1.054512652465019</v>
+        <v>1.032267563464419</v>
       </c>
       <c r="N4">
-        <v>1.018549321356315</v>
+        <v>1.010672078173036</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040049872859116</v>
+        <v>1.004647138254649</v>
       </c>
       <c r="D5">
-        <v>1.044103011894805</v>
+        <v>1.022539558839664</v>
       </c>
       <c r="E5">
-        <v>1.043603538091141</v>
+        <v>1.011891208330787</v>
       </c>
       <c r="F5">
-        <v>1.052407354581509</v>
+        <v>1.023970218772184</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034558863316713</v>
+        <v>1.042959051071033</v>
       </c>
       <c r="J5">
-        <v>1.044465584633633</v>
+        <v>1.023480594598709</v>
       </c>
       <c r="K5">
-        <v>1.046515322788206</v>
+        <v>1.032155377235721</v>
       </c>
       <c r="L5">
-        <v>1.046017064601658</v>
+        <v>1.021627149125421</v>
       </c>
       <c r="M5">
-        <v>1.054799636038349</v>
+        <v>1.033570132298837</v>
       </c>
       <c r="N5">
-        <v>1.018642130974632</v>
+        <v>1.011107960203828</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040111820904117</v>
+        <v>1.004937999895282</v>
       </c>
       <c r="D6">
-        <v>1.044149694601701</v>
+        <v>1.022756316748296</v>
       </c>
       <c r="E6">
-        <v>1.04366321413052</v>
+        <v>1.012159864687283</v>
       </c>
       <c r="F6">
-        <v>1.052464217691636</v>
+        <v>1.024227132298058</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034570225648034</v>
+        <v>1.043029056079906</v>
       </c>
       <c r="J6">
-        <v>1.044511141778746</v>
+        <v>1.02368852630064</v>
       </c>
       <c r="K6">
-        <v>1.046553261784508</v>
+        <v>1.03233313538873</v>
       </c>
       <c r="L6">
-        <v>1.046067960741949</v>
+        <v>1.021855637221706</v>
       </c>
       <c r="M6">
-        <v>1.0548478081013</v>
+        <v>1.033787678983029</v>
       </c>
       <c r="N6">
-        <v>1.018657704801411</v>
+        <v>1.0111807270715</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039685797008096</v>
+        <v>1.0029290815</v>
       </c>
       <c r="D7">
-        <v>1.043828628664196</v>
+        <v>1.021259390885822</v>
       </c>
       <c r="E7">
-        <v>1.043252842937119</v>
+        <v>1.010304789048152</v>
       </c>
       <c r="F7">
-        <v>1.052073182018749</v>
+        <v>1.022453177904828</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034491955025295</v>
+        <v>1.04254450925983</v>
       </c>
       <c r="J7">
-        <v>1.044197788730726</v>
+        <v>1.022252093317333</v>
       </c>
       <c r="K7">
-        <v>1.046292270104244</v>
+        <v>1.031104912290764</v>
       </c>
       <c r="L7">
-        <v>1.04571791749084</v>
+        <v>1.020277454910654</v>
       </c>
       <c r="M7">
-        <v>1.054516488076298</v>
+        <v>1.032285046788762</v>
       </c>
       <c r="N7">
-        <v>1.018550562107856</v>
+        <v>1.010677930767339</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037903625211054</v>
+        <v>0.994300805621239</v>
       </c>
       <c r="D8">
-        <v>1.042484944473806</v>
+        <v>1.014835277527881</v>
       </c>
       <c r="E8">
-        <v>1.041536849122719</v>
+        <v>1.002349759334205</v>
       </c>
       <c r="F8">
-        <v>1.050437843904845</v>
+        <v>1.014847191619618</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034161276386954</v>
+        <v>1.040437558501883</v>
       </c>
       <c r="J8">
-        <v>1.042885674329784</v>
+        <v>1.016075631045625</v>
       </c>
       <c r="K8">
-        <v>1.045198462704642</v>
+        <v>1.025817976368833</v>
       </c>
       <c r="L8">
-        <v>1.044252983691998</v>
+        <v>1.013497995436549</v>
       </c>
       <c r="M8">
-        <v>1.053129616862515</v>
+        <v>1.025829734936392</v>
       </c>
       <c r="N8">
-        <v>1.018101368867993</v>
+        <v>1.008513341704072</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034757407010874</v>
+        <v>0.9781220656402231</v>
       </c>
       <c r="D9">
-        <v>1.04011070858018</v>
+        <v>1.002817632748436</v>
       </c>
       <c r="E9">
-        <v>1.038510136208234</v>
+        <v>0.98748670304242</v>
       </c>
       <c r="F9">
-        <v>1.047552674579913</v>
+        <v>1.000643455956034</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03356525719108</v>
+        <v>1.036391390343835</v>
       </c>
       <c r="J9">
-        <v>1.040564508828207</v>
+        <v>1.00447176979965</v>
       </c>
       <c r="K9">
-        <v>1.043259934751922</v>
+        <v>1.01586516064181</v>
       </c>
       <c r="L9">
-        <v>1.041664547282897</v>
+        <v>1.000786115640853</v>
       </c>
       <c r="M9">
-        <v>1.05067802094264</v>
+        <v>1.01372610215543</v>
       </c>
       <c r="N9">
-        <v>1.017304669807149</v>
+        <v>1.004437654505469</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032655747466325</v>
+        <v>0.9665706198943842</v>
       </c>
       <c r="D10">
-        <v>1.038523369996079</v>
+        <v>0.9942649667896457</v>
       </c>
       <c r="E10">
-        <v>1.036490142534406</v>
+        <v>0.9769162616135438</v>
       </c>
       <c r="F10">
-        <v>1.045626684206563</v>
+        <v>0.990549626655433</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033158904863437</v>
+        <v>1.033442137902448</v>
       </c>
       <c r="J10">
-        <v>1.039010794082197</v>
+        <v>0.9961763493690371</v>
       </c>
       <c r="K10">
-        <v>1.041959977027243</v>
+        <v>1.008738546877957</v>
       </c>
       <c r="L10">
-        <v>1.039933990800872</v>
+        <v>0.9917151946077662</v>
       </c>
       <c r="M10">
-        <v>1.049038236727926</v>
+        <v>1.005091632956622</v>
       </c>
       <c r="N10">
-        <v>1.016770009925879</v>
+        <v>1.00151906503701</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031744651494427</v>
+        <v>0.9613586875409406</v>
       </c>
       <c r="D11">
-        <v>1.037834930011938</v>
+        <v>0.9904148479901848</v>
       </c>
       <c r="E11">
-        <v>1.035614893545387</v>
+        <v>0.9721581973250724</v>
       </c>
       <c r="F11">
-        <v>1.044792061599228</v>
+        <v>0.9860086502190324</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032980802184243</v>
+        <v>1.032098268991255</v>
       </c>
       <c r="J11">
-        <v>1.038336489250501</v>
+        <v>0.9924322811839535</v>
       </c>
       <c r="K11">
-        <v>1.041395244478994</v>
+        <v>1.00551981869482</v>
       </c>
       <c r="L11">
-        <v>1.039183425341821</v>
+        <v>0.987624988496558</v>
       </c>
       <c r="M11">
-        <v>1.048326874637706</v>
+        <v>1.001199336000568</v>
       </c>
       <c r="N11">
-        <v>1.016537646969981</v>
+        <v>1.000200898586098</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031406064628091</v>
+        <v>0.9593884176762079</v>
       </c>
       <c r="D12">
-        <v>1.037579042666136</v>
+        <v>0.9889609114824066</v>
       </c>
       <c r="E12">
-        <v>1.03528969570684</v>
+        <v>0.9703613227879104</v>
       </c>
       <c r="F12">
-        <v>1.044481943141287</v>
+        <v>0.9842942104471071</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032914322936971</v>
+        <v>1.031588370824065</v>
       </c>
       <c r="J12">
-        <v>1.038085787943001</v>
+        <v>0.9910168408616012</v>
       </c>
       <c r="K12">
-        <v>1.041185197989271</v>
+        <v>1.004302703615536</v>
       </c>
       <c r="L12">
-        <v>1.038904444143638</v>
+        <v>0.9860792682251576</v>
       </c>
       <c r="M12">
-        <v>1.048062440544322</v>
+        <v>0.9997286238667337</v>
       </c>
       <c r="N12">
-        <v>1.016451207924687</v>
+        <v>0.9997024607433578</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03147870022665</v>
+        <v>0.9598126485601607</v>
       </c>
       <c r="D13">
-        <v>1.037633939115966</v>
+        <v>0.9892738950528387</v>
       </c>
       <c r="E13">
-        <v>1.03535945595533</v>
+        <v>0.9707481345132485</v>
       </c>
       <c r="F13">
-        <v>1.044548469302542</v>
+        <v>0.9846632549264748</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03292859763905</v>
+        <v>1.031698242938015</v>
       </c>
       <c r="J13">
-        <v>1.038139574894192</v>
+        <v>0.9913216090649387</v>
       </c>
       <c r="K13">
-        <v>1.041230266376988</v>
+        <v>1.004564780781877</v>
       </c>
       <c r="L13">
-        <v>1.038964295119251</v>
+        <v>0.9864120619419502</v>
       </c>
       <c r="M13">
-        <v>1.048119171777062</v>
+        <v>1.000045257677538</v>
       </c>
       <c r="N13">
-        <v>1.016469755253646</v>
+        <v>0.9998097871986906</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031716667201365</v>
+        <v>0.9611965418135064</v>
       </c>
       <c r="D14">
-        <v>1.037813781771365</v>
+        <v>0.9902951623205851</v>
       </c>
       <c r="E14">
-        <v>1.035588014481102</v>
+        <v>0.9720102836746861</v>
       </c>
       <c r="F14">
-        <v>1.044766429223512</v>
+        <v>0.9858675127753144</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032975313604183</v>
+        <v>1.032056343691955</v>
       </c>
       <c r="J14">
-        <v>1.03831577100674</v>
+        <v>0.9923157964867718</v>
       </c>
       <c r="K14">
-        <v>1.041377887692764</v>
+        <v>1.005419660671945</v>
       </c>
       <c r="L14">
-        <v>1.039160368522654</v>
+        <v>0.9874977706412803</v>
       </c>
       <c r="M14">
-        <v>1.048305020585231</v>
+        <v>1.001078286856154</v>
       </c>
       <c r="N14">
-        <v>1.016530504531703</v>
+        <v>1.000159881284201</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031863264446157</v>
+        <v>0.9620445673350687</v>
       </c>
       <c r="D15">
-        <v>1.037924566138207</v>
+        <v>0.9909211841914585</v>
       </c>
       <c r="E15">
-        <v>1.035728824686759</v>
+        <v>0.9727839499193316</v>
       </c>
       <c r="F15">
-        <v>1.044900707830583</v>
+        <v>0.9866057547025361</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033004053889701</v>
+        <v>1.03227553830928</v>
       </c>
       <c r="J15">
-        <v>1.03842430006667</v>
+        <v>0.9929250118312091</v>
       </c>
       <c r="K15">
-        <v>1.041468804910723</v>
+        <v>1.00594347642625</v>
       </c>
       <c r="L15">
-        <v>1.039281150816222</v>
+        <v>0.9881631438687685</v>
       </c>
       <c r="M15">
-        <v>1.048419501225647</v>
+        <v>1.00171140569679</v>
       </c>
       <c r="N15">
-        <v>1.016567917025993</v>
+        <v>1.000374397731127</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032716191031623</v>
+        <v>0.9669118639162105</v>
       </c>
       <c r="D16">
-        <v>1.038569035805681</v>
+        <v>0.9945172468868512</v>
       </c>
       <c r="E16">
-        <v>1.036548217357902</v>
+        <v>0.9772280328785875</v>
       </c>
       <c r="F16">
-        <v>1.045682061205907</v>
+        <v>0.9908472318036429</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033170679575745</v>
+        <v>1.033529861368681</v>
       </c>
       <c r="J16">
-        <v>1.039055512795011</v>
+        <v>0.9964214710823908</v>
       </c>
       <c r="K16">
-        <v>1.041997417405234</v>
+        <v>1.008949233656585</v>
       </c>
       <c r="L16">
-        <v>1.039983777247482</v>
+        <v>0.9919830576262856</v>
       </c>
       <c r="M16">
-        <v>1.049085419277279</v>
+        <v>1.005346562198109</v>
       </c>
       <c r="N16">
-        <v>1.016785413048615</v>
+        <v>1.00160534836565</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033250920753904</v>
+        <v>0.9699068939760406</v>
       </c>
       <c r="D17">
-        <v>1.038972994779201</v>
+        <v>0.9967324741948169</v>
       </c>
       <c r="E17">
-        <v>1.037062042712313</v>
+        <v>0.9799656717242642</v>
       </c>
       <c r="F17">
-        <v>1.046172005145864</v>
+        <v>0.9934607752957858</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033274623259062</v>
+        <v>1.034298314163187</v>
       </c>
       <c r="J17">
-        <v>1.039451042009282</v>
+        <v>0.9985727286989752</v>
       </c>
       <c r="K17">
-        <v>1.042328506789307</v>
+        <v>1.010798038564361</v>
       </c>
       <c r="L17">
-        <v>1.040424185964153</v>
+        <v>0.9943343369173474</v>
       </c>
       <c r="M17">
-        <v>1.049502774939665</v>
+        <v>1.007584440586212</v>
       </c>
       <c r="N17">
-        <v>1.016921613731514</v>
+        <v>1.002362498230095</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033562717311781</v>
+        <v>0.971633777662641</v>
       </c>
       <c r="D18">
-        <v>1.039208510138466</v>
+        <v>0.9980105493202991</v>
       </c>
       <c r="E18">
-        <v>1.03736169284721</v>
+        <v>0.9815451974296668</v>
       </c>
       <c r="F18">
-        <v>1.046457718121249</v>
+        <v>0.9949689377703206</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033335044533144</v>
+        <v>1.034740142474931</v>
       </c>
       <c r="J18">
-        <v>1.039681599548506</v>
+        <v>0.9998129833437096</v>
       </c>
       <c r="K18">
-        <v>1.042521448070027</v>
+        <v>1.01186371186441</v>
       </c>
       <c r="L18">
-        <v>1.04068095118093</v>
+        <v>0.9956902744408836</v>
       </c>
       <c r="M18">
-        <v>1.04974608386137</v>
+        <v>1.00887508269798</v>
       </c>
       <c r="N18">
-        <v>1.01700097518667</v>
+        <v>1.002798929197337</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033669014703214</v>
+        <v>0.9722192754669332</v>
       </c>
       <c r="D19">
-        <v>1.03928879671885</v>
+        <v>0.9984440111636232</v>
       </c>
       <c r="E19">
-        <v>1.037463856520826</v>
+        <v>0.9820809080754123</v>
       </c>
       <c r="F19">
-        <v>1.046555128287441</v>
+        <v>0.9954804829655786</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033355611493058</v>
+        <v>1.034889729021289</v>
       </c>
       <c r="J19">
-        <v>1.039760188725639</v>
+        <v>1.000233465828279</v>
       </c>
       <c r="K19">
-        <v>1.042587206031195</v>
+        <v>1.012224969195615</v>
       </c>
       <c r="L19">
-        <v>1.04076848163498</v>
+        <v>0.9961500389224526</v>
       </c>
       <c r="M19">
-        <v>1.049829024382767</v>
+        <v>1.0093127228068</v>
       </c>
       <c r="N19">
-        <v>1.017028021500799</v>
+        <v>1.002946876823138</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033193559931879</v>
+        <v>0.9695876501302236</v>
       </c>
       <c r="D20">
-        <v>1.038929664902748</v>
+        <v>0.9964962646447731</v>
       </c>
       <c r="E20">
-        <v>1.037006919889246</v>
+        <v>0.9796737536082636</v>
       </c>
       <c r="F20">
-        <v>1.046119445347443</v>
+        <v>0.9931820646963289</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03326349253746</v>
+        <v>1.03421653285409</v>
       </c>
       <c r="J20">
-        <v>1.039408620799865</v>
+        <v>0.9983434356728138</v>
       </c>
       <c r="K20">
-        <v>1.042293002419144</v>
+        <v>1.01060100407663</v>
       </c>
       <c r="L20">
-        <v>1.040376946485186</v>
+        <v>0.9940836865502494</v>
       </c>
       <c r="M20">
-        <v>1.049458009849236</v>
+        <v>1.007345868144162</v>
       </c>
       <c r="N20">
-        <v>1.016907009187752</v>
+        <v>1.002281805644657</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031646596464455</v>
+        <v>0.9607899911584682</v>
       </c>
       <c r="D21">
-        <v>1.03776082731139</v>
+        <v>0.9899950977529437</v>
       </c>
       <c r="E21">
-        <v>1.035520712251078</v>
+        <v>0.9716394470687127</v>
       </c>
       <c r="F21">
-        <v>1.044702248319081</v>
+        <v>0.9855136724191849</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032961565868808</v>
+        <v>1.03195119392412</v>
       </c>
       <c r="J21">
-        <v>1.03826389214541</v>
+        <v>0.9920237318099319</v>
       </c>
       <c r="K21">
-        <v>1.041334424638426</v>
+        <v>1.005168527922091</v>
       </c>
       <c r="L21">
-        <v>1.039102635008012</v>
+        <v>0.9871788037409317</v>
       </c>
       <c r="M21">
-        <v>1.048250298362834</v>
+        <v>1.00077479011986</v>
       </c>
       <c r="N21">
-        <v>1.016512618956367</v>
+        <v>1.000057036066747</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030673000283526</v>
+        <v>0.9550583339618337</v>
       </c>
       <c r="D22">
-        <v>1.037024947162503</v>
+        <v>0.9857686394877391</v>
       </c>
       <c r="E22">
-        <v>1.034585743501989</v>
+        <v>0.9664158220292458</v>
       </c>
       <c r="F22">
-        <v>1.043810605551743</v>
+        <v>0.9805306317535969</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032769857600627</v>
+        <v>1.030464431738043</v>
       </c>
       <c r="J22">
-        <v>1.037542797395142</v>
+        <v>0.9879061266791306</v>
       </c>
       <c r="K22">
-        <v>1.04073010917172</v>
+        <v>1.001627394247994</v>
       </c>
       <c r="L22">
-        <v>1.038300336434515</v>
+        <v>0.9826832955462537</v>
       </c>
       <c r="M22">
-        <v>1.047489788627486</v>
+        <v>0.9964979052003432</v>
       </c>
       <c r="N22">
-        <v>1.016263902675927</v>
+        <v>0.9986068777933863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031189214762094</v>
+        <v>0.9581167842542898</v>
       </c>
       <c r="D23">
-        <v>1.037415145590101</v>
+        <v>0.9880229829395392</v>
       </c>
       <c r="E23">
-        <v>1.035081439967433</v>
+        <v>0.9692021308251855</v>
       </c>
       <c r="F23">
-        <v>1.044283339933689</v>
+        <v>0.9831883350471943</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032871663861415</v>
+        <v>1.031258762752658</v>
       </c>
       <c r="J23">
-        <v>1.037925193364106</v>
+        <v>0.9901032968957203</v>
       </c>
       <c r="K23">
-        <v>1.04105062272233</v>
+        <v>1.003517089443823</v>
       </c>
       <c r="L23">
-        <v>1.038725754598577</v>
+        <v>0.9850818018228955</v>
       </c>
       <c r="M23">
-        <v>1.047893061649802</v>
+        <v>0.9987796286987562</v>
       </c>
       <c r="N23">
-        <v>1.016395823117688</v>
+        <v>0.9993807357472625</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033219479133876</v>
+        <v>0.9697319644896898</v>
       </c>
       <c r="D24">
-        <v>1.038949244139548</v>
+        <v>0.9966030407964095</v>
       </c>
       <c r="E24">
-        <v>1.037031827691528</v>
+        <v>0.9798057121069814</v>
       </c>
       <c r="F24">
-        <v>1.046143195052551</v>
+        <v>0.9933080521503966</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03326852267198</v>
+        <v>1.034253506025827</v>
       </c>
       <c r="J24">
-        <v>1.039427789575387</v>
+        <v>0.9984470881079089</v>
       </c>
       <c r="K24">
-        <v>1.042309045864245</v>
+        <v>1.010690074620772</v>
       </c>
       <c r="L24">
-        <v>1.040398292335919</v>
+        <v>0.9941969924851415</v>
       </c>
       <c r="M24">
-        <v>1.049478237660744</v>
+        <v>1.007453713971214</v>
       </c>
       <c r="N24">
-        <v>1.016913608606065</v>
+        <v>1.002318283178236</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035571496212434</v>
+        <v>0.9824308200923965</v>
       </c>
       <c r="D25">
-        <v>1.04072529019292</v>
+        <v>1.006014111113756</v>
       </c>
       <c r="E25">
-        <v>1.039292982478276</v>
+        <v>0.9914383711191447</v>
       </c>
       <c r="F25">
-        <v>1.048298994098601</v>
+        <v>1.004418727717962</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033720926168759</v>
+        <v>1.037479610971354</v>
       </c>
       <c r="J25">
-        <v>1.041165677454444</v>
+        <v>1.007564276924114</v>
       </c>
       <c r="K25">
-        <v>1.0437624207158</v>
+        <v>1.018519777674713</v>
       </c>
       <c r="L25">
-        <v>1.042334574622193</v>
+        <v>1.004171065413608</v>
       </c>
       <c r="M25">
-        <v>1.051312753829433</v>
+        <v>1.016948833723976</v>
       </c>
       <c r="N25">
-        <v>1.017511253186763</v>
+        <v>1.005524783976654</v>
       </c>
     </row>
   </sheetData>
